--- a/src/voc4cat/templates/vocab/blank_1.0_min.xlsx
+++ b/src/voc4cat/templates/vocab/blank_1.0_min.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\MyProg\gh-nfdi4cat\voc4cat-tool\src\voc4cat\templates\vocab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8CABFC-6576-481B-9F4B-39521EA19097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9050F09-0F02-40D0-A27E-FE3F03F7780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="7785" windowWidth="28500" windowHeight="9420" tabRatio="652" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="345" windowWidth="28260" windowHeight="16380" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept Scheme" sheetId="3" r:id="rId1"/>
     <sheet name="Concepts" sheetId="4" r:id="rId2"/>
-    <sheet name="Mappings" sheetId="10" r:id="rId3"/>
-    <sheet name="Collections" sheetId="6" r:id="rId4"/>
+    <sheet name="Collections" sheetId="6" r:id="rId3"/>
+    <sheet name="Mappings" sheetId="10" r:id="rId4"/>
     <sheet name="Prefixes" sheetId="7" r:id="rId5"/>
     <sheet name="Enums" sheetId="9" r:id="rId6"/>
   </sheets>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="192">
   <si>
     <t>Template version</t>
   </si>
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t>URL of SHACL profile</t>
-  </si>
-  <si>
-    <t>Source Vocab IRI</t>
   </si>
   <si>
     <t>Concept Scheme</t>
@@ -586,9 +583,6 @@
     <t>This mapping was added in error.</t>
   </si>
   <si>
-    <t>Transitive? Yes or No (default)</t>
-  </si>
-  <si>
     <t>skos:broader,
 skos:broaderTransitive</t>
   </si>
@@ -596,18 +590,6 @@
     <t>Member of collection(s)</t>
   </si>
   <si>
-    <t>Member of ordered collection(s) &amp; position(s)</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/elements/1.1/contributor</t>
-  </si>
-  <si>
-    <t>Change Note*2</t>
-  </si>
-  <si>
-    <t>dct:contributor</t>
-  </si>
-  <si>
     <t>Field</t>
   </si>
   <si>
@@ -615,13 +597,73 @@
   </si>
   <si>
     <t>Meaning</t>
+  </si>
+  <si>
+    <t>Member of ordered collection # position</t>
+  </si>
+  <si>
+    <t>name + url (Hyperlink)</t>
+  </si>
+  <si>
+    <t>SPDX license specifier and/or Hyperlink</t>
+  </si>
+  <si>
+    <t>name of Hyperlink</t>
+  </si>
+  <si>
+    <t>one of more IRIs, URLs</t>
+  </si>
+  <si>
+    <t>NEW vs. 043</t>
+  </si>
+  <si>
+    <t>changed: was provenance in 043</t>
+  </si>
+  <si>
+    <t>not in RDF!</t>
+  </si>
+  <si>
+    <t>for tools to provide feedback</t>
+  </si>
+  <si>
+    <t>prov:wasInformedBy</t>
+  </si>
+  <si>
+    <t>dct:license</t>
+  </si>
+  <si>
+    <t>dct:rightsHolder</t>
+  </si>
+  <si>
+    <t>dct:isVersionOf</t>
+  </si>
+  <si>
+    <t>Source Vocab IRI or URL</t>
+  </si>
+  <si>
+    <t>Declare transitivity like this: "voc4cat:0000184 T (actions)"?</t>
+  </si>
+  <si>
+    <t>dct:publisher</t>
+  </si>
+  <si>
+    <t>owl:versionInfo</t>
+  </si>
+  <si>
+    <t>dct:modified</t>
+  </si>
+  <si>
+    <t>dct:creator</t>
+  </si>
+  <si>
+    <t>dct:created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,8 +733,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,8 +835,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -819,15 +872,6 @@
       <bottom style="thin">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -897,7 +941,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -941,39 +985,33 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,6 +1019,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="2" builtinId="30"/>
@@ -989,66 +1033,16 @@
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="38">
     <dxf>
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
-          <color theme="4"/>
+          <color theme="8"/>
         </top>
         <bottom/>
         <vertical/>
@@ -1146,6 +1140,39 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1189,9 +1216,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1208,9 +1232,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" wrapText="1"/>
@@ -1250,27 +1271,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="concepts" displayName="concepts" ref="A4:Q114" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A4:Q114" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:Q114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="concepts" displayName="concepts" ref="A4:O114" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="A4:O114" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O114">
     <sortCondition ref="A4:A114"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Concept IRI*" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Language Code*" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Preferred Label*" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Definition*" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Alternate Labels" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parent IRIs" dataDxfId="32"/>
-    <tableColumn id="23" xr3:uid="{BA541259-9F7A-4149-8D8E-96564C45BD74}" name="Transitive? Yes or No (default)" dataDxfId="31"/>
-    <tableColumn id="22" xr3:uid="{F2786A31-0DB7-4AB6-863B-FC05DF0781DC}" name="Member of collection(s)" dataDxfId="30" dataCellStyle="20 % - Akzent4"/>
-    <tableColumn id="21" xr3:uid="{E91FC646-5A9A-44A7-9EF2-A25F5FAC81ED}" name="Member of ordered collection(s) &amp; position(s)" dataDxfId="29" dataCellStyle="20 % - Akzent4"/>
-    <tableColumn id="10" xr3:uid="{6DCBA190-65A6-49B4-922F-E28017ED8943}" name="Contributor" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Change Note*2" dataDxfId="27" dataCellStyle="20 % - Akzent4"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Concept IRI*" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Language Code*" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Preferred Label*" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Definition*" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Alternate Labels" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parent IRIs" dataDxfId="30"/>
+    <tableColumn id="22" xr3:uid="{F2786A31-0DB7-4AB6-863B-FC05DF0781DC}" name="Member of collection(s)" dataDxfId="29" dataCellStyle="20 % - Akzent4"/>
+    <tableColumn id="21" xr3:uid="{E91FC646-5A9A-44A7-9EF2-A25F5FAC81ED}" name="Member of ordered collection # position" dataDxfId="28" dataCellStyle="20 % - Akzent4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Change Note" dataDxfId="27" dataCellStyle="20 % - Akzent4"/>
     <tableColumn id="16" xr3:uid="{F6655C05-4065-49CF-8D28-681F41853CEE}" name="Editorial Note" dataDxfId="26" dataCellStyle="20 % - Akzent4"/>
     <tableColumn id="5" xr3:uid="{1157F656-17DF-44FC-901B-1DB65FFA3421}" name="Obsolete and set reason (History Note)" dataDxfId="25" dataCellStyle="20 % - Akzent4"/>
     <tableColumn id="20" xr3:uid="{0E27F11D-6C84-4EBA-BDA6-A2B2595FF363}" name="Influenced by IRIs" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Source Vocab IRI" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Source Vocab IRI or URL" dataDxfId="23"/>
     <tableColumn id="18" xr3:uid="{41A0DB6A-AFC6-4454-ACE0-401A63509671}" name="Source Vocab License" dataDxfId="22"/>
     <tableColumn id="19" xr3:uid="{66B22024-6F0B-4BC0-AF0C-15A03F2844BA}" name="Source Vocab Rights Holder" dataDxfId="21"/>
   </tableColumns>
@@ -1279,38 +1298,36 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{30241627-BA1B-4573-8207-D3E319C6F415}" name="Tabelle7" displayName="Tabelle7" ref="A4:I12" totalsRowShown="0" headerRowDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A4:I12" xr:uid="{30241627-BA1B-4573-8207-D3E319C6F415}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="collections" displayName="collections" ref="A4:I21" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A4:I21" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F6C3D9C7-F4D5-4B6B-BA84-C6BFA9BF8869}" name="Concept IRI*" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{4C1477A4-E28E-4D1D-B598-BE088F378EA3}" name="Related Matches" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{73D4F709-5C8C-4B8B-BE7E-4F6578F1D0CA}" name="Close Matches" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{1FA614E4-66E2-41DD-8B50-8359888C0D5C}" name="Exact Matches" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{E678BC4A-C1C1-4174-B11B-296FE891B056}" name="Narrower Matches" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{AE0DBADD-9E4E-427B-BBEA-B1CFAC3EB206}" name="Broader Matches" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{981EC778-DD4C-4325-8AC1-B6A64DAD7E87}" name="Contributor"/>
-    <tableColumn id="8" xr3:uid="{0F102D2E-D407-4F21-AF98-9A20F71BB566}" name="Editorial Note"/>
-    <tableColumn id="9" xr3:uid="{0660EF1E-8F22-404D-A0FE-46066315F155}" name="Obsolete and set reason (History Note)" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Collection IRI" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{9A60EA8F-1E79-4DBE-847C-84FFCA5DB907}" name="Language Code*" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Preferred Label" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Definition" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{4F96A930-9395-4982-9691-210A0A598B89}" name="Parent Collection IRIs" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{B7178C4D-9C67-4FC5-A341-525468F72EF8}" name="Ordered? Yes or No (default)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Change Note*" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{10B4D0A6-D689-43DA-AFE1-31DFEDAE562D}" name="Editorial Note" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{F5AC18C6-B50B-4EC6-B813-235F6579275C}" name="Obsolete and set reason (History Note)" dataDxfId="10"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="collections" displayName="collections" ref="A4:I21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A4:I21" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Collection IRI" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{9A60EA8F-1E79-4DBE-847C-84FFCA5DB907}" name="Language Code*" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Preferred Label" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Definition" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{4F96A930-9395-4982-9691-210A0A598B89}" name="Parent Collection IRIs" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{B7178C4D-9C67-4FC5-A341-525468F72EF8}" name="Ordered? Yes or No (default)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Change Note*" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{10B4D0A6-D689-43DA-AFE1-31DFEDAE562D}" name="Editorial Note" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{F5AC18C6-B50B-4EC6-B813-235F6579275C}" name="Obsolete and set reason (History Note)" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{30241627-BA1B-4573-8207-D3E319C6F415}" name="Tabelle7" displayName="Tabelle7" ref="A4:G12" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A4:G12" xr:uid="{30241627-BA1B-4573-8207-D3E319C6F415}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F6C3D9C7-F4D5-4B6B-BA84-C6BFA9BF8869}" name="Concept IRI*" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4C1477A4-E28E-4D1D-B598-BE088F378EA3}" name="Related Matches" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{73D4F709-5C8C-4B8B-BE7E-4F6578F1D0CA}" name="Close Matches" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{1FA614E4-66E2-41DD-8B50-8359888C0D5C}" name="Exact Matches" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E678BC4A-C1C1-4174-B11B-296FE891B056}" name="Narrower Matches" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{AE0DBADD-9E4E-427B-BBEA-B1CFAC3EB206}" name="Broader Matches" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B6258573-3719-425C-BFD0-625A4A5DCF33}" name="Editorial Note" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1659,11 +1676,11 @@
   </sheetPr>
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="64.140625" customWidth="1"/>
@@ -1672,92 +1689,95 @@
     <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="35.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15"/>
+    <row r="3" spans="1:5" ht="35.25" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="39" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" ht="32.25" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" ht="29.25" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1765,14 +1785,14 @@
       <c r="C9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="27" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>105</v>
       </c>
@@ -1780,1176 +1800,1176 @@
       <c r="C10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="D10" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A11" s="26" t="s">
         <v>106</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>137</v>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="D12" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A13" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>138</v>
+    <row r="14" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>139</v>
+      <c r="D14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A16" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="D17" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A18" s="26" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A19" s="26" t="s">
         <v>115</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A20" s="26" t="s">
         <v>116</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A21" s="26" t="s">
         <v>108</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A22" s="26" t="s">
         <v>109</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="A23" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" ht="15" customHeight="1"/>
+    <row r="25" spans="1:5" ht="15" customHeight="1"/>
+    <row r="26" spans="1:5" ht="15" customHeight="1"/>
+    <row r="27" spans="1:5" ht="15" customHeight="1"/>
+    <row r="28" spans="1:5" ht="15" customHeight="1"/>
+    <row r="29" spans="1:5" ht="15" customHeight="1"/>
+    <row r="30" spans="1:5" ht="15" customHeight="1"/>
+    <row r="31" spans="1:5" ht="15" customHeight="1"/>
+    <row r="32" spans="1:5" ht="15" customHeight="1"/>
+    <row r="33" ht="15" customHeight="1"/>
+    <row r="34" ht="15" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1"/>
+    <row r="36" ht="15" customHeight="1"/>
+    <row r="37" ht="15" customHeight="1"/>
+    <row r="38" ht="15" customHeight="1"/>
+    <row r="39" ht="15" customHeight="1"/>
+    <row r="40" ht="15" customHeight="1"/>
+    <row r="41" ht="15" customHeight="1"/>
+    <row r="42" ht="15" customHeight="1"/>
+    <row r="43" ht="15" customHeight="1"/>
+    <row r="44" ht="15" customHeight="1"/>
+    <row r="45" ht="15" customHeight="1"/>
+    <row r="46" ht="15" customHeight="1"/>
+    <row r="47" ht="15" customHeight="1"/>
+    <row r="48" ht="15" customHeight="1"/>
+    <row r="49" ht="15" customHeight="1"/>
+    <row r="50" ht="15" customHeight="1"/>
+    <row r="51" ht="15" customHeight="1"/>
+    <row r="52" ht="15" customHeight="1"/>
+    <row r="53" ht="15" customHeight="1"/>
+    <row r="54" ht="15" customHeight="1"/>
+    <row r="55" ht="15" customHeight="1"/>
+    <row r="56" ht="15" customHeight="1"/>
+    <row r="57" ht="15" customHeight="1"/>
+    <row r="58" ht="15" customHeight="1"/>
+    <row r="59" ht="15" customHeight="1"/>
+    <row r="60" ht="15" customHeight="1"/>
+    <row r="61" ht="15" customHeight="1"/>
+    <row r="62" ht="15" customHeight="1"/>
+    <row r="63" ht="15" customHeight="1"/>
+    <row r="64" ht="15" customHeight="1"/>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="66" ht="15" customHeight="1"/>
+    <row r="67" ht="15" customHeight="1"/>
+    <row r="68" ht="15" customHeight="1"/>
+    <row r="69" ht="15" customHeight="1"/>
+    <row r="70" ht="15" customHeight="1"/>
+    <row r="71" ht="15" customHeight="1"/>
+    <row r="72" ht="15" customHeight="1"/>
+    <row r="73" ht="15" customHeight="1"/>
+    <row r="74" ht="15" customHeight="1"/>
+    <row r="75" ht="15" customHeight="1"/>
+    <row r="76" ht="15" customHeight="1"/>
+    <row r="77" ht="15" customHeight="1"/>
+    <row r="78" ht="15" customHeight="1"/>
+    <row r="79" ht="15" customHeight="1"/>
+    <row r="80" ht="15" customHeight="1"/>
+    <row r="81" ht="15" customHeight="1"/>
+    <row r="82" ht="15" customHeight="1"/>
+    <row r="83" ht="15" customHeight="1"/>
+    <row r="84" ht="15" customHeight="1"/>
+    <row r="85" ht="15" customHeight="1"/>
+    <row r="86" ht="15" customHeight="1"/>
+    <row r="87" ht="15" customHeight="1"/>
+    <row r="88" ht="15" customHeight="1"/>
+    <row r="89" ht="15" customHeight="1"/>
+    <row r="90" ht="15" customHeight="1"/>
+    <row r="91" ht="15" customHeight="1"/>
+    <row r="92" ht="15" customHeight="1"/>
+    <row r="93" ht="15" customHeight="1"/>
+    <row r="94" ht="15" customHeight="1"/>
+    <row r="95" ht="15" customHeight="1"/>
+    <row r="96" ht="15" customHeight="1"/>
+    <row r="97" ht="15" customHeight="1"/>
+    <row r="98" ht="15" customHeight="1"/>
+    <row r="99" ht="15" customHeight="1"/>
+    <row r="100" ht="15" customHeight="1"/>
+    <row r="101" ht="15" customHeight="1"/>
+    <row r="102" ht="15" customHeight="1"/>
+    <row r="103" ht="15" customHeight="1"/>
+    <row r="104" ht="15" customHeight="1"/>
+    <row r="105" ht="15" customHeight="1"/>
+    <row r="106" ht="15" customHeight="1"/>
+    <row r="107" ht="15" customHeight="1"/>
+    <row r="108" ht="15" customHeight="1"/>
+    <row r="109" ht="15" customHeight="1"/>
+    <row r="110" ht="15" customHeight="1"/>
+    <row r="111" ht="15" customHeight="1"/>
+    <row r="112" ht="15" customHeight="1"/>
+    <row r="113" ht="15" customHeight="1"/>
+    <row r="114" ht="15" customHeight="1"/>
+    <row r="115" ht="15" customHeight="1"/>
+    <row r="116" ht="15" customHeight="1"/>
+    <row r="117" ht="15" customHeight="1"/>
+    <row r="118" ht="15" customHeight="1"/>
+    <row r="119" ht="15" customHeight="1"/>
+    <row r="120" ht="15" customHeight="1"/>
+    <row r="121" ht="15" customHeight="1"/>
+    <row r="122" ht="15" customHeight="1"/>
+    <row r="123" ht="15" customHeight="1"/>
+    <row r="124" ht="15" customHeight="1"/>
+    <row r="125" ht="15" customHeight="1"/>
+    <row r="126" ht="15" customHeight="1"/>
+    <row r="127" ht="15" customHeight="1"/>
+    <row r="128" ht="15" customHeight="1"/>
+    <row r="129" ht="15" customHeight="1"/>
+    <row r="130" ht="15" customHeight="1"/>
+    <row r="131" ht="15" customHeight="1"/>
+    <row r="132" ht="15" customHeight="1"/>
+    <row r="133" ht="15" customHeight="1"/>
+    <row r="134" ht="15" customHeight="1"/>
+    <row r="135" ht="15" customHeight="1"/>
+    <row r="136" ht="15" customHeight="1"/>
+    <row r="137" ht="15" customHeight="1"/>
+    <row r="138" ht="15" customHeight="1"/>
+    <row r="139" ht="15" customHeight="1"/>
+    <row r="140" ht="15" customHeight="1"/>
+    <row r="141" ht="15" customHeight="1"/>
+    <row r="142" ht="15" customHeight="1"/>
+    <row r="143" ht="15" customHeight="1"/>
+    <row r="144" ht="15" customHeight="1"/>
+    <row r="145" ht="15" customHeight="1"/>
+    <row r="146" ht="15" customHeight="1"/>
+    <row r="147" ht="15" customHeight="1"/>
+    <row r="148" ht="15" customHeight="1"/>
+    <row r="149" ht="15" customHeight="1"/>
+    <row r="150" ht="15" customHeight="1"/>
+    <row r="151" ht="15" customHeight="1"/>
+    <row r="152" ht="15" customHeight="1"/>
+    <row r="153" ht="15" customHeight="1"/>
+    <row r="154" ht="15" customHeight="1"/>
+    <row r="155" ht="15" customHeight="1"/>
+    <row r="156" ht="15" customHeight="1"/>
+    <row r="157" ht="15" customHeight="1"/>
+    <row r="158" ht="15" customHeight="1"/>
+    <row r="159" ht="15" customHeight="1"/>
+    <row r="160" ht="15" customHeight="1"/>
+    <row r="161" ht="15" customHeight="1"/>
+    <row r="162" ht="15" customHeight="1"/>
+    <row r="163" ht="15" customHeight="1"/>
+    <row r="164" ht="15" customHeight="1"/>
+    <row r="165" ht="15" customHeight="1"/>
+    <row r="166" ht="15" customHeight="1"/>
+    <row r="167" ht="15" customHeight="1"/>
+    <row r="168" ht="15" customHeight="1"/>
+    <row r="169" ht="15" customHeight="1"/>
+    <row r="170" ht="15" customHeight="1"/>
+    <row r="171" ht="15" customHeight="1"/>
+    <row r="172" ht="15" customHeight="1"/>
+    <row r="173" ht="15" customHeight="1"/>
+    <row r="174" ht="15" customHeight="1"/>
+    <row r="175" ht="15" customHeight="1"/>
+    <row r="176" ht="15" customHeight="1"/>
+    <row r="177" ht="15" customHeight="1"/>
+    <row r="178" ht="15" customHeight="1"/>
+    <row r="179" ht="15" customHeight="1"/>
+    <row r="180" ht="15" customHeight="1"/>
+    <row r="181" ht="15" customHeight="1"/>
+    <row r="182" ht="15" customHeight="1"/>
+    <row r="183" ht="15" customHeight="1"/>
+    <row r="184" ht="15" customHeight="1"/>
+    <row r="185" ht="15" customHeight="1"/>
+    <row r="186" ht="15" customHeight="1"/>
+    <row r="187" ht="15" customHeight="1"/>
+    <row r="188" ht="15" customHeight="1"/>
+    <row r="189" ht="15" customHeight="1"/>
+    <row r="190" ht="15" customHeight="1"/>
+    <row r="191" ht="15" customHeight="1"/>
+    <row r="192" ht="15" customHeight="1"/>
+    <row r="193" ht="15" customHeight="1"/>
+    <row r="194" ht="15" customHeight="1"/>
+    <row r="195" ht="15" customHeight="1"/>
+    <row r="196" ht="15" customHeight="1"/>
+    <row r="197" ht="15" customHeight="1"/>
+    <row r="198" ht="15" customHeight="1"/>
+    <row r="199" ht="15" customHeight="1"/>
+    <row r="200" ht="15" customHeight="1"/>
+    <row r="201" ht="15" customHeight="1"/>
+    <row r="202" ht="15" customHeight="1"/>
+    <row r="203" ht="15" customHeight="1"/>
+    <row r="204" ht="15" customHeight="1"/>
+    <row r="205" ht="15" customHeight="1"/>
+    <row r="206" ht="15" customHeight="1"/>
+    <row r="207" ht="15" customHeight="1"/>
+    <row r="208" ht="15" customHeight="1"/>
+    <row r="209" ht="15" customHeight="1"/>
+    <row r="210" ht="15" customHeight="1"/>
+    <row r="211" ht="15" customHeight="1"/>
+    <row r="212" ht="15" customHeight="1"/>
+    <row r="213" ht="15" customHeight="1"/>
+    <row r="214" ht="15" customHeight="1"/>
+    <row r="215" ht="15" customHeight="1"/>
+    <row r="216" ht="15" customHeight="1"/>
+    <row r="217" ht="15" customHeight="1"/>
+    <row r="218" ht="15" customHeight="1"/>
+    <row r="219" ht="15" customHeight="1"/>
+    <row r="220" ht="15" customHeight="1"/>
+    <row r="221" ht="15" customHeight="1"/>
+    <row r="222" ht="15" customHeight="1"/>
+    <row r="223" ht="15" customHeight="1"/>
+    <row r="224" ht="15" customHeight="1"/>
+    <row r="225" ht="15" customHeight="1"/>
+    <row r="226" ht="15" customHeight="1"/>
+    <row r="227" ht="15" customHeight="1"/>
+    <row r="228" ht="15" customHeight="1"/>
+    <row r="229" ht="15" customHeight="1"/>
+    <row r="230" ht="15" customHeight="1"/>
+    <row r="231" ht="15" customHeight="1"/>
+    <row r="232" ht="15" customHeight="1"/>
+    <row r="233" ht="15" customHeight="1"/>
+    <row r="234" ht="15" customHeight="1"/>
+    <row r="235" ht="15" customHeight="1"/>
+    <row r="236" ht="15" customHeight="1"/>
+    <row r="237" ht="15" customHeight="1"/>
+    <row r="238" ht="15" customHeight="1"/>
+    <row r="239" ht="15" customHeight="1"/>
+    <row r="240" ht="15" customHeight="1"/>
+    <row r="241" ht="15" customHeight="1"/>
+    <row r="242" ht="15" customHeight="1"/>
+    <row r="243" ht="15" customHeight="1"/>
+    <row r="244" ht="15" customHeight="1"/>
+    <row r="245" ht="15" customHeight="1"/>
+    <row r="246" ht="15" customHeight="1"/>
+    <row r="247" ht="15" customHeight="1"/>
+    <row r="248" ht="15" customHeight="1"/>
+    <row r="249" ht="15" customHeight="1"/>
+    <row r="250" ht="15" customHeight="1"/>
+    <row r="251" ht="15" customHeight="1"/>
+    <row r="252" ht="15" customHeight="1"/>
+    <row r="253" ht="15" customHeight="1"/>
+    <row r="254" ht="15" customHeight="1"/>
+    <row r="255" ht="15" customHeight="1"/>
+    <row r="256" ht="15" customHeight="1"/>
+    <row r="257" ht="15" customHeight="1"/>
+    <row r="258" ht="15" customHeight="1"/>
+    <row r="259" ht="15" customHeight="1"/>
+    <row r="260" ht="15" customHeight="1"/>
+    <row r="261" ht="15" customHeight="1"/>
+    <row r="262" ht="15" customHeight="1"/>
+    <row r="263" ht="15" customHeight="1"/>
+    <row r="264" ht="15" customHeight="1"/>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
+    <row r="465" ht="15" customHeight="1"/>
+    <row r="466" ht="15" customHeight="1"/>
+    <row r="467" ht="15" customHeight="1"/>
+    <row r="468" ht="15" customHeight="1"/>
+    <row r="469" ht="15" customHeight="1"/>
+    <row r="470" ht="15" customHeight="1"/>
+    <row r="471" ht="15" customHeight="1"/>
+    <row r="472" ht="15" customHeight="1"/>
+    <row r="473" ht="15" customHeight="1"/>
+    <row r="474" ht="15" customHeight="1"/>
+    <row r="475" ht="15" customHeight="1"/>
+    <row r="476" ht="15" customHeight="1"/>
+    <row r="477" ht="15" customHeight="1"/>
+    <row r="478" ht="15" customHeight="1"/>
+    <row r="479" ht="15" customHeight="1"/>
+    <row r="480" ht="15" customHeight="1"/>
+    <row r="481" ht="15" customHeight="1"/>
+    <row r="482" ht="15" customHeight="1"/>
+    <row r="483" ht="15" customHeight="1"/>
+    <row r="484" ht="15" customHeight="1"/>
+    <row r="485" ht="15" customHeight="1"/>
+    <row r="486" ht="15" customHeight="1"/>
+    <row r="487" ht="15" customHeight="1"/>
+    <row r="488" ht="15" customHeight="1"/>
+    <row r="489" ht="15" customHeight="1"/>
+    <row r="490" ht="15" customHeight="1"/>
+    <row r="491" ht="15" customHeight="1"/>
+    <row r="492" ht="15" customHeight="1"/>
+    <row r="493" ht="15" customHeight="1"/>
+    <row r="494" ht="15" customHeight="1"/>
+    <row r="495" ht="15" customHeight="1"/>
+    <row r="496" ht="15" customHeight="1"/>
+    <row r="497" ht="15" customHeight="1"/>
+    <row r="498" ht="15" customHeight="1"/>
+    <row r="499" ht="15" customHeight="1"/>
+    <row r="500" ht="15" customHeight="1"/>
+    <row r="501" ht="15" customHeight="1"/>
+    <row r="502" ht="15" customHeight="1"/>
+    <row r="503" ht="15" customHeight="1"/>
+    <row r="504" ht="15" customHeight="1"/>
+    <row r="505" ht="15" customHeight="1"/>
+    <row r="506" ht="15" customHeight="1"/>
+    <row r="507" ht="15" customHeight="1"/>
+    <row r="508" ht="15" customHeight="1"/>
+    <row r="509" ht="15" customHeight="1"/>
+    <row r="510" ht="15" customHeight="1"/>
+    <row r="511" ht="15" customHeight="1"/>
+    <row r="512" ht="15" customHeight="1"/>
+    <row r="513" ht="15" customHeight="1"/>
+    <row r="514" ht="15" customHeight="1"/>
+    <row r="515" ht="15" customHeight="1"/>
+    <row r="516" ht="15" customHeight="1"/>
+    <row r="517" ht="15" customHeight="1"/>
+    <row r="518" ht="15" customHeight="1"/>
+    <row r="519" ht="15" customHeight="1"/>
+    <row r="520" ht="15" customHeight="1"/>
+    <row r="521" ht="15" customHeight="1"/>
+    <row r="522" ht="15" customHeight="1"/>
+    <row r="523" ht="15" customHeight="1"/>
+    <row r="524" ht="15" customHeight="1"/>
+    <row r="525" ht="15" customHeight="1"/>
+    <row r="526" ht="15" customHeight="1"/>
+    <row r="527" ht="15" customHeight="1"/>
+    <row r="528" ht="15" customHeight="1"/>
+    <row r="529" ht="15" customHeight="1"/>
+    <row r="530" ht="15" customHeight="1"/>
+    <row r="531" ht="15" customHeight="1"/>
+    <row r="532" ht="15" customHeight="1"/>
+    <row r="533" ht="15" customHeight="1"/>
+    <row r="534" ht="15" customHeight="1"/>
+    <row r="535" ht="15" customHeight="1"/>
+    <row r="536" ht="15" customHeight="1"/>
+    <row r="537" ht="15" customHeight="1"/>
+    <row r="538" ht="15" customHeight="1"/>
+    <row r="539" ht="15" customHeight="1"/>
+    <row r="540" ht="15" customHeight="1"/>
+    <row r="541" ht="15" customHeight="1"/>
+    <row r="542" ht="15" customHeight="1"/>
+    <row r="543" ht="15" customHeight="1"/>
+    <row r="544" ht="15" customHeight="1"/>
+    <row r="545" ht="15" customHeight="1"/>
+    <row r="546" ht="15" customHeight="1"/>
+    <row r="547" ht="15" customHeight="1"/>
+    <row r="548" ht="15" customHeight="1"/>
+    <row r="549" ht="15" customHeight="1"/>
+    <row r="550" ht="15" customHeight="1"/>
+    <row r="551" ht="15" customHeight="1"/>
+    <row r="552" ht="15" customHeight="1"/>
+    <row r="553" ht="15" customHeight="1"/>
+    <row r="554" ht="15" customHeight="1"/>
+    <row r="555" ht="15" customHeight="1"/>
+    <row r="556" ht="15" customHeight="1"/>
+    <row r="557" ht="15" customHeight="1"/>
+    <row r="558" ht="15" customHeight="1"/>
+    <row r="559" ht="15" customHeight="1"/>
+    <row r="560" ht="15" customHeight="1"/>
+    <row r="561" ht="15" customHeight="1"/>
+    <row r="562" ht="15" customHeight="1"/>
+    <row r="563" ht="15" customHeight="1"/>
+    <row r="564" ht="15" customHeight="1"/>
+    <row r="565" ht="15" customHeight="1"/>
+    <row r="566" ht="15" customHeight="1"/>
+    <row r="567" ht="15" customHeight="1"/>
+    <row r="568" ht="15" customHeight="1"/>
+    <row r="569" ht="15" customHeight="1"/>
+    <row r="570" ht="15" customHeight="1"/>
+    <row r="571" ht="15" customHeight="1"/>
+    <row r="572" ht="15" customHeight="1"/>
+    <row r="573" ht="15" customHeight="1"/>
+    <row r="574" ht="15" customHeight="1"/>
+    <row r="575" ht="15" customHeight="1"/>
+    <row r="576" ht="15" customHeight="1"/>
+    <row r="577" ht="15" customHeight="1"/>
+    <row r="578" ht="15" customHeight="1"/>
+    <row r="579" ht="15" customHeight="1"/>
+    <row r="580" ht="15" customHeight="1"/>
+    <row r="581" ht="15" customHeight="1"/>
+    <row r="582" ht="15" customHeight="1"/>
+    <row r="583" ht="15" customHeight="1"/>
+    <row r="584" ht="15" customHeight="1"/>
+    <row r="585" ht="15" customHeight="1"/>
+    <row r="586" ht="15" customHeight="1"/>
+    <row r="587" ht="15" customHeight="1"/>
+    <row r="588" ht="15" customHeight="1"/>
+    <row r="589" ht="15" customHeight="1"/>
+    <row r="590" ht="15" customHeight="1"/>
+    <row r="591" ht="15" customHeight="1"/>
+    <row r="592" ht="15" customHeight="1"/>
+    <row r="593" ht="15" customHeight="1"/>
+    <row r="594" ht="15" customHeight="1"/>
+    <row r="595" ht="15" customHeight="1"/>
+    <row r="596" ht="15" customHeight="1"/>
+    <row r="597" ht="15" customHeight="1"/>
+    <row r="598" ht="15" customHeight="1"/>
+    <row r="599" ht="15" customHeight="1"/>
+    <row r="600" ht="15" customHeight="1"/>
+    <row r="601" ht="15" customHeight="1"/>
+    <row r="602" ht="15" customHeight="1"/>
+    <row r="603" ht="15" customHeight="1"/>
+    <row r="604" ht="15" customHeight="1"/>
+    <row r="605" ht="15" customHeight="1"/>
+    <row r="606" ht="15" customHeight="1"/>
+    <row r="607" ht="15" customHeight="1"/>
+    <row r="608" ht="15" customHeight="1"/>
+    <row r="609" ht="15" customHeight="1"/>
+    <row r="610" ht="15" customHeight="1"/>
+    <row r="611" ht="15" customHeight="1"/>
+    <row r="612" ht="15" customHeight="1"/>
+    <row r="613" ht="15" customHeight="1"/>
+    <row r="614" ht="15" customHeight="1"/>
+    <row r="615" ht="15" customHeight="1"/>
+    <row r="616" ht="15" customHeight="1"/>
+    <row r="617" ht="15" customHeight="1"/>
+    <row r="618" ht="15" customHeight="1"/>
+    <row r="619" ht="15" customHeight="1"/>
+    <row r="620" ht="15" customHeight="1"/>
+    <row r="621" ht="15" customHeight="1"/>
+    <row r="622" ht="15" customHeight="1"/>
+    <row r="623" ht="15" customHeight="1"/>
+    <row r="624" ht="15" customHeight="1"/>
+    <row r="625" ht="15" customHeight="1"/>
+    <row r="626" ht="15" customHeight="1"/>
+    <row r="627" ht="15" customHeight="1"/>
+    <row r="628" ht="15" customHeight="1"/>
+    <row r="629" ht="15" customHeight="1"/>
+    <row r="630" ht="15" customHeight="1"/>
+    <row r="631" ht="15" customHeight="1"/>
+    <row r="632" ht="15" customHeight="1"/>
+    <row r="633" ht="15" customHeight="1"/>
+    <row r="634" ht="15" customHeight="1"/>
+    <row r="635" ht="15" customHeight="1"/>
+    <row r="636" ht="15" customHeight="1"/>
+    <row r="637" ht="15" customHeight="1"/>
+    <row r="638" ht="15" customHeight="1"/>
+    <row r="639" ht="15" customHeight="1"/>
+    <row r="640" ht="15" customHeight="1"/>
+    <row r="641" ht="15" customHeight="1"/>
+    <row r="642" ht="15" customHeight="1"/>
+    <row r="643" ht="15" customHeight="1"/>
+    <row r="644" ht="15" customHeight="1"/>
+    <row r="645" ht="15" customHeight="1"/>
+    <row r="646" ht="15" customHeight="1"/>
+    <row r="647" ht="15" customHeight="1"/>
+    <row r="648" ht="15" customHeight="1"/>
+    <row r="649" ht="15" customHeight="1"/>
+    <row r="650" ht="15" customHeight="1"/>
+    <row r="651" ht="15" customHeight="1"/>
+    <row r="652" ht="15" customHeight="1"/>
+    <row r="653" ht="15" customHeight="1"/>
+    <row r="654" ht="15" customHeight="1"/>
+    <row r="655" ht="15" customHeight="1"/>
+    <row r="656" ht="15" customHeight="1"/>
+    <row r="657" ht="15" customHeight="1"/>
+    <row r="658" ht="15" customHeight="1"/>
+    <row r="659" ht="15" customHeight="1"/>
+    <row r="660" ht="15" customHeight="1"/>
+    <row r="661" ht="15" customHeight="1"/>
+    <row r="662" ht="15" customHeight="1"/>
+    <row r="663" ht="15" customHeight="1"/>
+    <row r="664" ht="15" customHeight="1"/>
+    <row r="665" ht="15" customHeight="1"/>
+    <row r="666" ht="15" customHeight="1"/>
+    <row r="667" ht="15" customHeight="1"/>
+    <row r="668" ht="15" customHeight="1"/>
+    <row r="669" ht="15" customHeight="1"/>
+    <row r="670" ht="15" customHeight="1"/>
+    <row r="671" ht="15" customHeight="1"/>
+    <row r="672" ht="15" customHeight="1"/>
+    <row r="673" ht="15" customHeight="1"/>
+    <row r="674" ht="15" customHeight="1"/>
+    <row r="675" ht="15" customHeight="1"/>
+    <row r="676" ht="15" customHeight="1"/>
+    <row r="677" ht="15" customHeight="1"/>
+    <row r="678" ht="15" customHeight="1"/>
+    <row r="679" ht="15" customHeight="1"/>
+    <row r="680" ht="15" customHeight="1"/>
+    <row r="681" ht="15" customHeight="1"/>
+    <row r="682" ht="15" customHeight="1"/>
+    <row r="683" ht="15" customHeight="1"/>
+    <row r="684" ht="15" customHeight="1"/>
+    <row r="685" ht="15" customHeight="1"/>
+    <row r="686" ht="15" customHeight="1"/>
+    <row r="687" ht="15" customHeight="1"/>
+    <row r="688" ht="15" customHeight="1"/>
+    <row r="689" ht="15" customHeight="1"/>
+    <row r="690" ht="15" customHeight="1"/>
+    <row r="691" ht="15" customHeight="1"/>
+    <row r="692" ht="15" customHeight="1"/>
+    <row r="693" ht="15" customHeight="1"/>
+    <row r="694" ht="15" customHeight="1"/>
+    <row r="695" ht="15" customHeight="1"/>
+    <row r="696" ht="15" customHeight="1"/>
+    <row r="697" ht="15" customHeight="1"/>
+    <row r="698" ht="15" customHeight="1"/>
+    <row r="699" ht="15" customHeight="1"/>
+    <row r="700" ht="15" customHeight="1"/>
+    <row r="701" ht="15" customHeight="1"/>
+    <row r="702" ht="15" customHeight="1"/>
+    <row r="703" ht="15" customHeight="1"/>
+    <row r="704" ht="15" customHeight="1"/>
+    <row r="705" ht="15" customHeight="1"/>
+    <row r="706" ht="15" customHeight="1"/>
+    <row r="707" ht="15" customHeight="1"/>
+    <row r="708" ht="15" customHeight="1"/>
+    <row r="709" ht="15" customHeight="1"/>
+    <row r="710" ht="15" customHeight="1"/>
+    <row r="711" ht="15" customHeight="1"/>
+    <row r="712" ht="15" customHeight="1"/>
+    <row r="713" ht="15" customHeight="1"/>
+    <row r="714" ht="15" customHeight="1"/>
+    <row r="715" ht="15" customHeight="1"/>
+    <row r="716" ht="15" customHeight="1"/>
+    <row r="717" ht="15" customHeight="1"/>
+    <row r="718" ht="15" customHeight="1"/>
+    <row r="719" ht="15" customHeight="1"/>
+    <row r="720" ht="15" customHeight="1"/>
+    <row r="721" ht="15" customHeight="1"/>
+    <row r="722" ht="15" customHeight="1"/>
+    <row r="723" ht="15" customHeight="1"/>
+    <row r="724" ht="15" customHeight="1"/>
+    <row r="725" ht="15" customHeight="1"/>
+    <row r="726" ht="15" customHeight="1"/>
+    <row r="727" ht="15" customHeight="1"/>
+    <row r="728" ht="15" customHeight="1"/>
+    <row r="729" ht="15" customHeight="1"/>
+    <row r="730" ht="15" customHeight="1"/>
+    <row r="731" ht="15" customHeight="1"/>
+    <row r="732" ht="15" customHeight="1"/>
+    <row r="733" ht="15" customHeight="1"/>
+    <row r="734" ht="15" customHeight="1"/>
+    <row r="735" ht="15" customHeight="1"/>
+    <row r="736" ht="15" customHeight="1"/>
+    <row r="737" ht="15" customHeight="1"/>
+    <row r="738" ht="15" customHeight="1"/>
+    <row r="739" ht="15" customHeight="1"/>
+    <row r="740" ht="15" customHeight="1"/>
+    <row r="741" ht="15" customHeight="1"/>
+    <row r="742" ht="15" customHeight="1"/>
+    <row r="743" ht="15" customHeight="1"/>
+    <row r="744" ht="15" customHeight="1"/>
+    <row r="745" ht="15" customHeight="1"/>
+    <row r="746" ht="15" customHeight="1"/>
+    <row r="747" ht="15" customHeight="1"/>
+    <row r="748" ht="15" customHeight="1"/>
+    <row r="749" ht="15" customHeight="1"/>
+    <row r="750" ht="15" customHeight="1"/>
+    <row r="751" ht="15" customHeight="1"/>
+    <row r="752" ht="15" customHeight="1"/>
+    <row r="753" ht="15" customHeight="1"/>
+    <row r="754" ht="15" customHeight="1"/>
+    <row r="755" ht="15" customHeight="1"/>
+    <row r="756" ht="15" customHeight="1"/>
+    <row r="757" ht="15" customHeight="1"/>
+    <row r="758" ht="15" customHeight="1"/>
+    <row r="759" ht="15" customHeight="1"/>
+    <row r="760" ht="15" customHeight="1"/>
+    <row r="761" ht="15" customHeight="1"/>
+    <row r="762" ht="15" customHeight="1"/>
+    <row r="763" ht="15" customHeight="1"/>
+    <row r="764" ht="15" customHeight="1"/>
+    <row r="765" ht="15" customHeight="1"/>
+    <row r="766" ht="15" customHeight="1"/>
+    <row r="767" ht="15" customHeight="1"/>
+    <row r="768" ht="15" customHeight="1"/>
+    <row r="769" ht="15" customHeight="1"/>
+    <row r="770" ht="15" customHeight="1"/>
+    <row r="771" ht="15" customHeight="1"/>
+    <row r="772" ht="15" customHeight="1"/>
+    <row r="773" ht="15" customHeight="1"/>
+    <row r="774" ht="15" customHeight="1"/>
+    <row r="775" ht="15" customHeight="1"/>
+    <row r="776" ht="15" customHeight="1"/>
+    <row r="777" ht="15" customHeight="1"/>
+    <row r="778" ht="15" customHeight="1"/>
+    <row r="779" ht="15" customHeight="1"/>
+    <row r="780" ht="15" customHeight="1"/>
+    <row r="781" ht="15" customHeight="1"/>
+    <row r="782" ht="15" customHeight="1"/>
+    <row r="783" ht="15" customHeight="1"/>
+    <row r="784" ht="15" customHeight="1"/>
+    <row r="785" ht="15" customHeight="1"/>
+    <row r="786" ht="15" customHeight="1"/>
+    <row r="787" ht="15" customHeight="1"/>
+    <row r="788" ht="15" customHeight="1"/>
+    <row r="789" ht="15" customHeight="1"/>
+    <row r="790" ht="15" customHeight="1"/>
+    <row r="791" ht="15" customHeight="1"/>
+    <row r="792" ht="15" customHeight="1"/>
+    <row r="793" ht="15" customHeight="1"/>
+    <row r="794" ht="15" customHeight="1"/>
+    <row r="795" ht="15" customHeight="1"/>
+    <row r="796" ht="15" customHeight="1"/>
+    <row r="797" ht="15" customHeight="1"/>
+    <row r="798" ht="15" customHeight="1"/>
+    <row r="799" ht="15" customHeight="1"/>
+    <row r="800" ht="15" customHeight="1"/>
+    <row r="801" ht="15" customHeight="1"/>
+    <row r="802" ht="15" customHeight="1"/>
+    <row r="803" ht="15" customHeight="1"/>
+    <row r="804" ht="15" customHeight="1"/>
+    <row r="805" ht="15" customHeight="1"/>
+    <row r="806" ht="15" customHeight="1"/>
+    <row r="807" ht="15" customHeight="1"/>
+    <row r="808" ht="15" customHeight="1"/>
+    <row r="809" ht="15" customHeight="1"/>
+    <row r="810" ht="15" customHeight="1"/>
+    <row r="811" ht="15" customHeight="1"/>
+    <row r="812" ht="15" customHeight="1"/>
+    <row r="813" ht="15" customHeight="1"/>
+    <row r="814" ht="15" customHeight="1"/>
+    <row r="815" ht="15" customHeight="1"/>
+    <row r="816" ht="15" customHeight="1"/>
+    <row r="817" ht="15" customHeight="1"/>
+    <row r="818" ht="15" customHeight="1"/>
+    <row r="819" ht="15" customHeight="1"/>
+    <row r="820" ht="15" customHeight="1"/>
+    <row r="821" ht="15" customHeight="1"/>
+    <row r="822" ht="15" customHeight="1"/>
+    <row r="823" ht="15" customHeight="1"/>
+    <row r="824" ht="15" customHeight="1"/>
+    <row r="825" ht="15" customHeight="1"/>
+    <row r="826" ht="15" customHeight="1"/>
+    <row r="827" ht="15" customHeight="1"/>
+    <row r="828" ht="15" customHeight="1"/>
+    <row r="829" ht="15" customHeight="1"/>
+    <row r="830" ht="15" customHeight="1"/>
+    <row r="831" ht="15" customHeight="1"/>
+    <row r="832" ht="15" customHeight="1"/>
+    <row r="833" ht="15" customHeight="1"/>
+    <row r="834" ht="15" customHeight="1"/>
+    <row r="835" ht="15" customHeight="1"/>
+    <row r="836" ht="15" customHeight="1"/>
+    <row r="837" ht="15" customHeight="1"/>
+    <row r="838" ht="15" customHeight="1"/>
+    <row r="839" ht="15" customHeight="1"/>
+    <row r="840" ht="15" customHeight="1"/>
+    <row r="841" ht="15" customHeight="1"/>
+    <row r="842" ht="15" customHeight="1"/>
+    <row r="843" ht="15" customHeight="1"/>
+    <row r="844" ht="15" customHeight="1"/>
+    <row r="845" ht="15" customHeight="1"/>
+    <row r="846" ht="15" customHeight="1"/>
+    <row r="847" ht="15" customHeight="1"/>
+    <row r="848" ht="15" customHeight="1"/>
+    <row r="849" ht="15" customHeight="1"/>
+    <row r="850" ht="15" customHeight="1"/>
+    <row r="851" ht="15" customHeight="1"/>
+    <row r="852" ht="15" customHeight="1"/>
+    <row r="853" ht="15" customHeight="1"/>
+    <row r="854" ht="15" customHeight="1"/>
+    <row r="855" ht="15" customHeight="1"/>
+    <row r="856" ht="15" customHeight="1"/>
+    <row r="857" ht="15" customHeight="1"/>
+    <row r="858" ht="15" customHeight="1"/>
+    <row r="859" ht="15" customHeight="1"/>
+    <row r="860" ht="15" customHeight="1"/>
+    <row r="861" ht="15" customHeight="1"/>
+    <row r="862" ht="15" customHeight="1"/>
+    <row r="863" ht="15" customHeight="1"/>
+    <row r="864" ht="15" customHeight="1"/>
+    <row r="865" ht="15" customHeight="1"/>
+    <row r="866" ht="15" customHeight="1"/>
+    <row r="867" ht="15" customHeight="1"/>
+    <row r="868" ht="15" customHeight="1"/>
+    <row r="869" ht="15" customHeight="1"/>
+    <row r="870" ht="15" customHeight="1"/>
+    <row r="871" ht="15" customHeight="1"/>
+    <row r="872" ht="15" customHeight="1"/>
+    <row r="873" ht="15" customHeight="1"/>
+    <row r="874" ht="15" customHeight="1"/>
+    <row r="875" ht="15" customHeight="1"/>
+    <row r="876" ht="15" customHeight="1"/>
+    <row r="877" ht="15" customHeight="1"/>
+    <row r="878" ht="15" customHeight="1"/>
+    <row r="879" ht="15" customHeight="1"/>
+    <row r="880" ht="15" customHeight="1"/>
+    <row r="881" ht="15" customHeight="1"/>
+    <row r="882" ht="15" customHeight="1"/>
+    <row r="883" ht="15" customHeight="1"/>
+    <row r="884" ht="15" customHeight="1"/>
+    <row r="885" ht="15" customHeight="1"/>
+    <row r="886" ht="15" customHeight="1"/>
+    <row r="887" ht="15" customHeight="1"/>
+    <row r="888" ht="15" customHeight="1"/>
+    <row r="889" ht="15" customHeight="1"/>
+    <row r="890" ht="15" customHeight="1"/>
+    <row r="891" ht="15" customHeight="1"/>
+    <row r="892" ht="15" customHeight="1"/>
+    <row r="893" ht="15" customHeight="1"/>
+    <row r="894" ht="15" customHeight="1"/>
+    <row r="895" ht="15" customHeight="1"/>
+    <row r="896" ht="15" customHeight="1"/>
+    <row r="897" ht="15" customHeight="1"/>
+    <row r="898" ht="15" customHeight="1"/>
+    <row r="899" ht="15" customHeight="1"/>
+    <row r="900" ht="15" customHeight="1"/>
+    <row r="901" ht="15" customHeight="1"/>
+    <row r="902" ht="15" customHeight="1"/>
+    <row r="903" ht="15" customHeight="1"/>
+    <row r="904" ht="15" customHeight="1"/>
+    <row r="905" ht="15" customHeight="1"/>
+    <row r="906" ht="15" customHeight="1"/>
+    <row r="907" ht="15" customHeight="1"/>
+    <row r="908" ht="15" customHeight="1"/>
+    <row r="909" ht="15" customHeight="1"/>
+    <row r="910" ht="15" customHeight="1"/>
+    <row r="911" ht="15" customHeight="1"/>
+    <row r="912" ht="15" customHeight="1"/>
+    <row r="913" ht="15" customHeight="1"/>
+    <row r="914" ht="15" customHeight="1"/>
+    <row r="915" ht="15" customHeight="1"/>
+    <row r="916" ht="15" customHeight="1"/>
+    <row r="917" ht="15" customHeight="1"/>
+    <row r="918" ht="15" customHeight="1"/>
+    <row r="919" ht="15" customHeight="1"/>
+    <row r="920" ht="15" customHeight="1"/>
+    <row r="921" ht="15" customHeight="1"/>
+    <row r="922" ht="15" customHeight="1"/>
+    <row r="923" ht="15" customHeight="1"/>
+    <row r="924" ht="15" customHeight="1"/>
+    <row r="925" ht="15" customHeight="1"/>
+    <row r="926" ht="15" customHeight="1"/>
+    <row r="927" ht="15" customHeight="1"/>
+    <row r="928" ht="15" customHeight="1"/>
+    <row r="929" ht="15" customHeight="1"/>
+    <row r="930" ht="15" customHeight="1"/>
+    <row r="931" ht="15" customHeight="1"/>
+    <row r="932" ht="15" customHeight="1"/>
+    <row r="933" ht="15" customHeight="1"/>
+    <row r="934" ht="15" customHeight="1"/>
+    <row r="935" ht="15" customHeight="1"/>
+    <row r="936" ht="15" customHeight="1"/>
+    <row r="937" ht="15" customHeight="1"/>
+    <row r="938" ht="15" customHeight="1"/>
+    <row r="939" ht="15" customHeight="1"/>
+    <row r="940" ht="15" customHeight="1"/>
+    <row r="941" ht="15" customHeight="1"/>
+    <row r="942" ht="15" customHeight="1"/>
+    <row r="943" ht="15" customHeight="1"/>
+    <row r="944" ht="15" customHeight="1"/>
+    <row r="945" ht="15" customHeight="1"/>
+    <row r="946" ht="15" customHeight="1"/>
+    <row r="947" ht="15" customHeight="1"/>
+    <row r="948" ht="15" customHeight="1"/>
+    <row r="949" ht="15" customHeight="1"/>
+    <row r="950" ht="15" customHeight="1"/>
+    <row r="951" ht="15" customHeight="1"/>
+    <row r="952" ht="15" customHeight="1"/>
+    <row r="953" ht="15" customHeight="1"/>
+    <row r="954" ht="15" customHeight="1"/>
+    <row r="955" ht="15" customHeight="1"/>
+    <row r="956" ht="15" customHeight="1"/>
+    <row r="957" ht="15" customHeight="1"/>
+    <row r="958" ht="15" customHeight="1"/>
+    <row r="959" ht="15" customHeight="1"/>
+    <row r="960" ht="15" customHeight="1"/>
+    <row r="961" ht="15" customHeight="1"/>
+    <row r="962" ht="15" customHeight="1"/>
+    <row r="963" ht="15" customHeight="1"/>
+    <row r="964" ht="15" customHeight="1"/>
+    <row r="965" ht="15" customHeight="1"/>
+    <row r="966" ht="15" customHeight="1"/>
+    <row r="967" ht="15" customHeight="1"/>
+    <row r="968" ht="15" customHeight="1"/>
+    <row r="969" ht="15" customHeight="1"/>
+    <row r="970" ht="15" customHeight="1"/>
+    <row r="971" ht="15" customHeight="1"/>
+    <row r="972" ht="15" customHeight="1"/>
+    <row r="973" ht="15" customHeight="1"/>
+    <row r="974" ht="15" customHeight="1"/>
+    <row r="975" ht="15" customHeight="1"/>
+    <row r="976" ht="15" customHeight="1"/>
+    <row r="977" ht="15" customHeight="1"/>
+    <row r="978" ht="15" customHeight="1"/>
+    <row r="979" ht="15" customHeight="1"/>
+    <row r="980" ht="15" customHeight="1"/>
+    <row r="981" ht="15" customHeight="1"/>
+    <row r="982" ht="15" customHeight="1"/>
+    <row r="983" ht="15" customHeight="1"/>
+    <row r="984" ht="15" customHeight="1"/>
+    <row r="985" ht="15" customHeight="1"/>
+    <row r="986" ht="15" customHeight="1"/>
+    <row r="987" ht="15" customHeight="1"/>
+    <row r="988" ht="15" customHeight="1"/>
+    <row r="989" ht="15" customHeight="1"/>
+    <row r="990" ht="15" customHeight="1"/>
+    <row r="991" ht="15" customHeight="1"/>
+    <row r="992" ht="15" customHeight="1"/>
+    <row r="993" ht="15" customHeight="1"/>
+    <row r="994" ht="15" customHeight="1"/>
+    <row r="995" ht="15" customHeight="1"/>
+    <row r="996" ht="15" customHeight="1"/>
+    <row r="997" ht="15" customHeight="1"/>
+    <row r="998" ht="15" customHeight="1"/>
+    <row r="999" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2961,14 +2981,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:Q2"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -2976,71 +2996,98 @@
     <col min="4" max="4" width="50.5703125" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="15" width="27" customWidth="1"/>
-    <col min="16" max="16" width="40.140625" customWidth="1"/>
-    <col min="17" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="13" width="27" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="15" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="G2" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" ht="30">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-    </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>174</v>
+      <c r="J3" t="s">
+        <v>157</v>
       </c>
       <c r="K3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="64.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3057,2136 +3104,1470 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>171</v>
+      <c r="H4" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="L4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>87</v>
       </c>
+      <c r="L4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="N4" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="P4" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="15"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="15"/>
-      <c r="L106" s="15"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="15"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="15"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:N114" xr:uid="{21126787-F20E-43FA-B3AC-DF3B93FFE1D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:L114" xr:uid="{21126787-F20E-43FA-B3AC-DF3B93FFE1D4}">
       <formula1>INDIRECT("obsoletion_reason_con[Obsoletion Reason Concepts]")</formula1>
     </dataValidation>
   </dataValidations>
@@ -5200,97 +4581,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB86794-2A8B-4BE0-A9BC-E8B9B5C97189}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="19" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5298,10 +4588,10 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -5312,36 +4602,36 @@
     <col min="9" max="9" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>160</v>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" t="s">
         <v>157</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>158</v>
       </c>
-      <c r="I3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="48" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5355,7 +4645,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>120</v>
@@ -5370,7 +4660,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5381,7 +4671,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5392,7 +4682,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5403,7 +4693,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5414,7 +4704,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5425,7 +4715,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5436,7 +4726,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5447,7 +4737,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5458,7 +4748,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5469,7 +4759,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5480,7 +4770,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5491,7 +4781,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5502,7 +4792,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5513,7 +4803,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5524,7 +4814,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5535,7 +4825,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5546,7 +4836,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5575,6 +4865,108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB86794-2A8B-4BE0-A9BC-E8B9B5C97189}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="G2" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
@@ -5586,24 +4978,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15"/>
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -5611,7 +5003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -5619,7 +5011,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -5627,7 +5019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -5635,7 +5027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -5643,7 +5035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5651,7 +5043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -5659,7 +5051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5667,7 +5059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -5675,7 +5067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -5683,7 +5075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -5691,7 +5083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5699,7 +5091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -5707,7 +5099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -5715,7 +5107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -5723,7 +5115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -5731,7 +5123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -5739,7 +5131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -5747,7 +5139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -5755,7 +5147,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -5763,7 +5155,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -5771,7 +5163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -5779,7 +5171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -5787,7 +5179,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -5795,7 +5187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -5803,7 +5195,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -5811,7 +5203,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -5819,7 +5211,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -5827,7 +5219,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -5835,7 +5227,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -5843,7 +5235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -5868,34 +5260,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085DE69A-2A74-48F9-B963-10EA18647A12}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
     <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="35.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -5903,18 +5295,18 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -5922,7 +5314,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -5930,12 +5322,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>85</v>
       </c>

--- a/src/voc4cat/templates/vocab/blank_1.0_min.xlsx
+++ b/src/voc4cat/templates/vocab/blank_1.0_min.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\MyProg\gh-nfdi4cat\voc4cat-tool\src\voc4cat\templates\vocab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlinke\MyProg_local\gh-nfdi4cat\voc4cat-tool\src\voc4cat\templates\vocab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9050F09-0F02-40D0-A27E-FE3F03F7780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D958D5E-DF0A-4FFF-8634-7B543E2F4BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="345" windowWidth="28260" windowHeight="16380" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12" yWindow="7188" windowWidth="23064" windowHeight="7224" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept Scheme" sheetId="3" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="190">
   <si>
     <t>Template version</t>
   </si>
@@ -575,12 +575,6 @@
   </si>
   <si>
     <t>1.0.rev-2025-06a</t>
-  </si>
-  <si>
-    <t>Obsoletion Reason Mappings</t>
-  </si>
-  <si>
-    <t>This mapping was added in error.</t>
   </si>
   <si>
     <t>skos:broader,
@@ -941,7 +935,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1020,7 +1014,6 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1355,18 +1348,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{58381442-B18C-4348-B569-355AE6C4FF6C}" name="obsoletion_reason_map" displayName="obsoletion_reason_map" ref="C4:C8" totalsRowShown="0">
-  <autoFilter ref="C4:C8" xr:uid="{58381442-B18C-4348-B569-355AE6C4FF6C}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D367E604-69CE-4058-A059-4ED41EC28044}" name="Obsoletion Reason Mappings"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B7C8BEC-E429-4014-B655-697EFB7EFF36}" name="obsoletion_reason_col" displayName="obsoletion_reason_col" ref="E4:E8" totalsRowShown="0">
-  <autoFilter ref="E4:E8" xr:uid="{6B7C8BEC-E429-4014-B655-697EFB7EFF36}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B7C8BEC-E429-4014-B655-697EFB7EFF36}" name="obsoletion_reason_col" displayName="obsoletion_reason_col" ref="C4:C8" totalsRowShown="0">
+  <autoFilter ref="C4:C8" xr:uid="{6B7C8BEC-E429-4014-B655-697EFB7EFF36}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{442E4487-208C-4445-AAEF-711FDC5FBE1F}" name="Obsoletion Reason Collections"/>
   </tableColumns>
@@ -1676,17 +1659,17 @@
   </sheetPr>
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" customWidth="1"/>
-    <col min="3" max="3" width="67.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="64.109375" customWidth="1"/>
+    <col min="3" max="3" width="67.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" customHeight="1">
@@ -1694,22 +1677,22 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15"/>
+    <row r="2" spans="1:5" ht="14.4"/>
     <row r="3" spans="1:5" ht="35.25" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
@@ -1764,7 +1747,7 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="14.4">
       <c r="A8" s="6" t="s">
         <v>134</v>
       </c>
@@ -1786,7 +1769,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>123</v>
@@ -1801,7 +1784,7 @@
         <v>103</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10" s="24"/>
     </row>
@@ -1814,7 +1797,7 @@
         <v>101</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>104</v>
@@ -1829,7 +1812,7 @@
         <v>122</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12" s="24"/>
     </row>
@@ -1857,11 +1840,11 @@
         <v>122</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" ht="14.4">
       <c r="A15" s="26" t="s">
         <v>138</v>
       </c>
@@ -2983,67 +2966,67 @@
   </sheetPr>
   <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
     <col min="12" max="13" width="27" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" customWidth="1"/>
     <col min="15" max="16" width="19" customWidth="1"/>
     <col min="17" max="17" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:15" ht="28.8">
       <c r="A1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="32" t="s">
-        <v>186</v>
+      <c r="F1" s="31" t="s">
+        <v>184</v>
       </c>
       <c r="L1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" t="s">
         <v>173</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="O1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="G2" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:15" ht="30">
+    <row r="3" spans="1:15" ht="28.8">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -3057,7 +3040,7 @@
         <v>153</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>155</v>
@@ -3075,16 +3058,16 @@
         <v>158</v>
       </c>
       <c r="L3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" t="s">
         <v>181</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="N3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="64.5" customHeight="1">
@@ -3107,10 +3090,10 @@
         <v>141</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>138</v>
@@ -3125,7 +3108,7 @@
         <v>131</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>129</v>
@@ -4587,28 +4570,28 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="40.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="40.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25">
+    <row r="1" spans="1:9" ht="23.4">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:9" ht="28.8">
       <c r="A3" s="18" t="s">
         <v>159</v>
       </c>
@@ -4867,26 +4850,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB86794-2A8B-4BE0-A9BC-E8B9B5C97189}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4">
       <c r="A1" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="G2" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4909,7 +4890,7 @@
         <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
@@ -4934,30 +4915,6 @@
       <c r="G4" s="14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="G12" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4978,23 +4935,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
+    <row r="1" spans="1:2" ht="23.4">
       <c r="A1" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="14.4">
       <c r="A2" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15"/>
+    <row r="3" spans="1:2" ht="14.4"/>
     <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>20</v>
@@ -5258,86 +5215,78 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085DE69A-2A74-48F9-B963-10EA18647A12}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62" customWidth="1"/>
-    <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35.25" customHeight="1">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>96</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>